--- a/AP_DC_X-talk/KETEK results.xlsx
+++ b/AP_DC_X-talk/KETEK results.xlsx
@@ -483,11 +483,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="309669424"/>
-        <c:axId val="309661192"/>
+        <c:axId val="191762272"/>
+        <c:axId val="191762664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="309669424"/>
+        <c:axId val="191762272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -544,12 +544,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="309661192"/>
+        <c:crossAx val="191762664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="309661192"/>
+        <c:axId val="191762664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -606,7 +606,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="309669424"/>
+        <c:crossAx val="191762272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -966,11 +966,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="310942936"/>
-        <c:axId val="310939800"/>
+        <c:axId val="191763448"/>
+        <c:axId val="191763840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="310942936"/>
+        <c:axId val="191763448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1027,12 +1027,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="310939800"/>
+        <c:crossAx val="191763840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="310939800"/>
+        <c:axId val="191763840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1089,7 +1089,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="310942936"/>
+        <c:crossAx val="191763448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1316,11 +1316,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="309662760"/>
-        <c:axId val="309654920"/>
+        <c:axId val="191764624"/>
+        <c:axId val="191765016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="309662760"/>
+        <c:axId val="191764624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1377,12 +1377,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="309654920"/>
+        <c:crossAx val="191765016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="309654920"/>
+        <c:axId val="191765016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1439,7 +1439,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="309662760"/>
+        <c:crossAx val="191764624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1652,11 +1652,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="309663544"/>
-        <c:axId val="309655312"/>
+        <c:axId val="191765800"/>
+        <c:axId val="191766192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="309663544"/>
+        <c:axId val="191765800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1713,12 +1713,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="309655312"/>
+        <c:crossAx val="191766192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="309655312"/>
+        <c:axId val="191766192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1775,7 +1775,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="309663544"/>
+        <c:crossAx val="191765800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1985,11 +1985,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="309669816"/>
-        <c:axId val="309669032"/>
+        <c:axId val="191768544"/>
+        <c:axId val="191768936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="309669816"/>
+        <c:axId val="191768544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2046,12 +2046,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="309669032"/>
+        <c:crossAx val="191768936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="309669032"/>
+        <c:axId val="191768936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2108,7 +2108,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="309669816"/>
+        <c:crossAx val="191768544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2120,6 +2120,477 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>2 comp</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$C$12:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$U$12:$U$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="3">
+                  <c:v>27.678289703122665</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.46173961617869</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.471923693984749</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.493251978049468</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.939543394222881</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.136411999295781</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.720015223851753</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.148128655713666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>1 comp</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$C$12:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$AQ$12:$AQ$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="3">
+                  <c:v>38.36915733656658</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.895366244316413</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.421050021606838</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.930078892325138</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.614624886353877</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26.690581427625823</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.023301263951744</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26.53202548135727</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="192365984"/>
+        <c:axId val="192366376"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="192365984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="192366376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="192366376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="192365984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2357,6 +2828,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4422,6 +4933,522 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5089,6 +6116,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Диаграмма 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5381,8 +6438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q6" workbookViewId="0">
-      <selection activeCell="X29" sqref="X29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5699,7 +6756,7 @@
         <v>3.135259037665844E-2</v>
       </c>
       <c r="J15" s="1">
-        <f>((1 / F15 + 1 / (G15+H15) )^0.5)*I15</f>
+        <f t="shared" ref="J15:J22" si="2">((1 / F15 + 1 / (G15+H15) )^0.5)*I15</f>
         <v>7.929372175631942E-4</v>
       </c>
       <c r="K15">
@@ -5707,15 +6764,15 @@
         <v>7.9320250566606854E-3</v>
       </c>
       <c r="L15">
-        <f>G15 / (F15+G15+H15)</f>
+        <f t="shared" ref="L15:L22" si="3">G15 / (F15+G15+H15)</f>
         <v>3.0284193554653355E-2</v>
       </c>
       <c r="M15">
-        <f>4*K15*(1 - K15)^6</f>
+        <f t="shared" ref="M15:M22" si="4">4*K15*(1 - K15)^6</f>
         <v>3.0247720467979109E-2</v>
       </c>
       <c r="N15">
-        <f>L15/M15</f>
+        <f t="shared" ref="N15:N22" si="5">L15/M15</f>
         <v>1.0012058127392727</v>
       </c>
       <c r="P15" s="2">
@@ -5729,15 +6786,15 @@
         <v>6.7725600000000001E-7</v>
       </c>
       <c r="S15" s="1">
-        <f>R15/Q15</f>
+        <f t="shared" ref="S15:S22" si="6">R15/Q15</f>
         <v>1.1872790032729867E-2</v>
       </c>
       <c r="U15">
-        <f>1 / W15</f>
+        <f t="shared" ref="U15:U22" si="7">1 / W15</f>
         <v>27.678289703122665</v>
       </c>
       <c r="V15">
-        <f>U15*Y15</f>
+        <f t="shared" ref="V15:V22" si="8">U15*Y15</f>
         <v>2.3033346633822505</v>
       </c>
       <c r="W15">
@@ -5747,15 +6804,15 @@
         <v>3.0066200000000002E-3</v>
       </c>
       <c r="Y15">
-        <f>X15/W15</f>
+        <f t="shared" ref="Y15:Y22" si="9">X15/W15</f>
         <v>8.3218099387202676E-2</v>
       </c>
       <c r="AA15">
-        <f>1 / AC15</f>
+        <f t="shared" ref="AA15:AA22" si="10">1 / AC15</f>
         <v>249.99375015624608</v>
       </c>
       <c r="AB15">
-        <f>AA15*AE15</f>
+        <f t="shared" ref="AB15:AB22" si="11">AA15*AE15</f>
         <v>67.202889813507511</v>
       </c>
       <c r="AC15">
@@ -5765,7 +6822,7 @@
         <v>1.0753E-3</v>
       </c>
       <c r="AE15" s="1">
-        <f>AD15/AC15</f>
+        <f t="shared" ref="AE15:AE22" si="12">AD15/AC15</f>
         <v>0.26881827954301141</v>
       </c>
       <c r="AG15" s="1">
@@ -5775,7 +6832,7 @@
         <v>1.6710799999999999E-3</v>
       </c>
       <c r="AI15" s="1">
-        <f>AH15/AG15</f>
+        <f t="shared" ref="AI15:AI22" si="13">AH15/AG15</f>
         <v>0.21843297853289606</v>
       </c>
       <c r="AK15" s="1">
@@ -5785,15 +6842,15 @@
         <v>3.9663500000000004E-3</v>
       </c>
       <c r="AM15" s="1">
-        <f>AL15/AK15</f>
+        <f t="shared" ref="AM15:AM22" si="14">AL15/AK15</f>
         <v>7.7261792292033935E-2</v>
       </c>
       <c r="AQ15">
-        <f>1 / AS15</f>
+        <f t="shared" ref="AQ15:AQ22" si="15">1 / AS15</f>
         <v>38.36915733656658</v>
       </c>
       <c r="AR15">
-        <f>AQ15*AU15</f>
+        <f t="shared" ref="AR15:AR22" si="16">AQ15*AU15</f>
         <v>1.988342832210402</v>
       </c>
       <c r="AS15">
@@ -5803,7 +6860,7 @@
         <v>1.3506E-3</v>
       </c>
       <c r="AU15" s="1">
-        <f>AT15/AS15</f>
+        <f t="shared" ref="AU15:AU22" si="17">AT15/AS15</f>
         <v>5.1821383898766817E-2</v>
       </c>
       <c r="AW15" s="1">
@@ -5813,7 +6870,7 @@
         <v>1.6838700000000001E-3</v>
       </c>
       <c r="AY15" s="1">
-        <f>AX15/AW15</f>
+        <f t="shared" ref="AY15:AY22" si="18">AX15/AW15</f>
         <v>3.8969180959169458E-2</v>
       </c>
     </row>
@@ -5835,27 +6892,27 @@
         <v>75</v>
       </c>
       <c r="I16" s="1">
-        <f>(G16+H16) / (F16+ G16 +H16)</f>
+        <f t="shared" ref="I15:I22" si="19">(G16+H16) / (F16+ G16 +H16)</f>
         <v>3.582716879623403E-2</v>
       </c>
       <c r="J16" s="1">
-        <f>((1 / F16 + 1 / (G16+H16) )^0.5)*I16</f>
+        <f t="shared" si="2"/>
         <v>7.9039342744501972E-4</v>
       </c>
       <c r="K16">
-        <f>1 - (1 -I16 )^(1/4)</f>
+        <f t="shared" ref="K15:K22" si="20">1 - (1 -I16 )^(1/4)</f>
         <v>9.0797069754947612E-3</v>
       </c>
       <c r="L16">
-        <f>G16 / (F16+G16+H16)</f>
+        <f t="shared" si="3"/>
         <v>3.4566240753194352E-2</v>
       </c>
       <c r="M16">
-        <f>4*K16*(1 - K16)^6</f>
+        <f t="shared" si="4"/>
         <v>3.4384614428678524E-2</v>
       </c>
       <c r="N16">
-        <f>L16/M16</f>
+        <f t="shared" si="5"/>
         <v>1.0052821975041355</v>
       </c>
       <c r="P16" s="2">
@@ -5869,15 +6926,15 @@
         <v>5.9865900000000001E-7</v>
       </c>
       <c r="S16" s="1">
-        <f>R16/Q16</f>
+        <f t="shared" si="6"/>
         <v>9.0971656596846549E-3</v>
       </c>
       <c r="U16">
-        <f>1 / W16</f>
+        <f t="shared" si="7"/>
         <v>20.46173961617869</v>
       </c>
       <c r="V16">
-        <f>U16*Y16</f>
+        <f t="shared" si="8"/>
         <v>4.3270447469444511</v>
       </c>
       <c r="W16">
@@ -5887,15 +6944,15 @@
         <v>1.0334899999999999E-2</v>
       </c>
       <c r="Y16">
-        <f>X16/W16</f>
+        <f t="shared" si="9"/>
         <v>0.21147003275924511</v>
       </c>
       <c r="AA16">
-        <f>1 / AC16</f>
+        <f t="shared" si="10"/>
         <v>77.142041641274076</v>
       </c>
       <c r="AB16">
-        <f>AA16*AE16</f>
+        <f t="shared" si="11"/>
         <v>22.669099809968589</v>
       </c>
       <c r="AC16">
@@ -5905,7 +6962,7 @@
         <v>3.8093599999999999E-3</v>
       </c>
       <c r="AE16" s="1">
-        <f>AD16/AC16</f>
+        <f t="shared" si="12"/>
         <v>0.29386180774660381</v>
       </c>
       <c r="AG16" s="1">
@@ -5915,7 +6972,7 @@
         <v>7.5993199999999997E-3</v>
       </c>
       <c r="AI16" s="1">
-        <f>AH16/AG16</f>
+        <f t="shared" si="13"/>
         <v>0.38554287772631107</v>
       </c>
       <c r="AK16" s="1">
@@ -5925,15 +6982,15 @@
         <v>5.6832100000000002E-3</v>
       </c>
       <c r="AM16" s="1">
-        <f>AL16/AK16</f>
+        <f t="shared" si="14"/>
         <v>0.10038098501494268</v>
       </c>
       <c r="AQ16">
-        <f>1 / AS16</f>
+        <f t="shared" si="15"/>
         <v>34.895366244316413</v>
       </c>
       <c r="AR16">
-        <f>AQ16*AU16</f>
+        <f t="shared" si="16"/>
         <v>1.4812548467185689</v>
       </c>
       <c r="AS16">
@@ -5943,7 +7000,7 @@
         <v>1.21645E-3</v>
       </c>
       <c r="AU16" s="1">
-        <f>AT16/AS16</f>
+        <f t="shared" si="17"/>
         <v>4.2448468267898706E-2</v>
       </c>
       <c r="AW16" s="1">
@@ -5953,7 +7010,7 @@
         <v>1.8770600000000001E-3</v>
       </c>
       <c r="AY16" s="1">
-        <f>AX16/AW16</f>
+        <f t="shared" si="18"/>
         <v>3.2715699722352456E-2</v>
       </c>
     </row>
@@ -5975,31 +7032,31 @@
         <v>94</v>
       </c>
       <c r="I17" s="1">
-        <f>(G17+H17) / (F17+ G17 +H17)</f>
+        <f t="shared" si="19"/>
         <v>3.8621892716964673E-2</v>
       </c>
       <c r="J17" s="1">
-        <f>((1 / F17 + 1 / (G17+H17) )^0.5)*I17</f>
+        <f t="shared" si="2"/>
         <v>8.3713910767200834E-4</v>
       </c>
       <c r="K17">
-        <f>1 - (1 -I17 )^(1/4)</f>
+        <f t="shared" si="20"/>
         <v>9.7985521451039448E-3</v>
       </c>
       <c r="L17">
-        <f>G17 / (F17+G17+H17)</f>
+        <f t="shared" si="3"/>
         <v>3.6982119494112516E-2</v>
       </c>
       <c r="M17">
-        <f>4*K17*(1 - K17)^6</f>
+        <f t="shared" si="4"/>
         <v>3.6945644035143881E-2</v>
       </c>
       <c r="N17">
-        <f>L17/M17</f>
+        <f t="shared" si="5"/>
         <v>1.0009872735993974</v>
       </c>
       <c r="P17" s="2">
-        <f t="shared" ref="P17:P22" si="2">Q17*1000*1000</f>
+        <f t="shared" ref="P17:P22" si="21">Q17*1000*1000</f>
         <v>63.466799999999992</v>
       </c>
       <c r="Q17" s="3">
@@ -6009,15 +7066,15 @@
         <v>3.9820200000000001E-7</v>
       </c>
       <c r="S17" s="1">
-        <f>R17/Q17</f>
+        <f t="shared" si="6"/>
         <v>6.2741779954243798E-3</v>
       </c>
       <c r="U17">
-        <f>1 / W17</f>
+        <f t="shared" si="7"/>
         <v>27.471923693984749</v>
       </c>
       <c r="V17">
-        <f>U17*Y17</f>
+        <f t="shared" si="8"/>
         <v>6.9286442393167889</v>
       </c>
       <c r="W17">
@@ -6027,15 +7084,15 @@
         <v>9.1805800000000007E-3</v>
       </c>
       <c r="Y17">
-        <f>X17/W17</f>
+        <f t="shared" si="9"/>
         <v>0.25220819322652255</v>
       </c>
       <c r="AA17">
-        <f>1 / AC17</f>
+        <f t="shared" si="10"/>
         <v>76.826748000583891</v>
       </c>
       <c r="AB17">
-        <f>AA17*AE17</f>
+        <f t="shared" si="11"/>
         <v>25.900216608123827</v>
       </c>
       <c r="AC17">
@@ -6045,7 +7102,7 @@
         <v>4.3881199999999997E-3</v>
       </c>
       <c r="AE17" s="1">
-        <f>AD17/AC17</f>
+        <f t="shared" si="12"/>
         <v>0.33712498943632213</v>
       </c>
       <c r="AG17" s="1">
@@ -6055,7 +7112,7 @@
         <v>8.6555899999999995E-3</v>
       </c>
       <c r="AI17" s="1">
-        <f>AH17/AG17</f>
+        <f t="shared" si="13"/>
         <v>0.4046880771262793</v>
       </c>
       <c r="AK17" s="1">
@@ -6065,15 +7122,15 @@
         <v>1.27762E-2</v>
       </c>
       <c r="AM17" s="1">
-        <f>AL17/AK17</f>
+        <f t="shared" si="14"/>
         <v>0.212681094884314</v>
       </c>
       <c r="AQ17">
-        <f>1 / AS17</f>
+        <f t="shared" si="15"/>
         <v>35.421050021606838</v>
       </c>
       <c r="AR17">
-        <f>AQ17*AU17</f>
+        <f t="shared" si="16"/>
         <v>1.7162368082997184</v>
       </c>
       <c r="AS17">
@@ -6083,7 +7140,7 @@
         <v>1.3679E-3</v>
       </c>
       <c r="AU17" s="1">
-        <f>AT17/AS17</f>
+        <f t="shared" si="17"/>
         <v>4.8452454324555992E-2</v>
       </c>
       <c r="AW17" s="1">
@@ -6093,7 +7150,7 @@
         <v>1.8115799999999999E-3</v>
       </c>
       <c r="AY17" s="1">
-        <f>AX17/AW17</f>
+        <f t="shared" si="18"/>
         <v>3.5707063240989857E-2</v>
       </c>
     </row>
@@ -6115,31 +7172,31 @@
         <v>113</v>
       </c>
       <c r="I18" s="1">
-        <f>(G18+H18) / (F18+ G18 +H18)</f>
+        <f t="shared" si="19"/>
         <v>3.9294620010756717E-2</v>
       </c>
       <c r="J18" s="1">
-        <f>((1 / F18 + 1 / (G18+H18) )^0.5)*I18</f>
+        <f t="shared" si="2"/>
         <v>8.164683925411156E-4</v>
       </c>
       <c r="K18">
-        <f>1 - (1 -I18 )^(1/4)</f>
+        <f t="shared" si="20"/>
         <v>9.9718217477611226E-3</v>
       </c>
       <c r="L18">
-        <f>G18 / (F18+G18+H18)</f>
+        <f t="shared" si="3"/>
         <v>3.7452939354922832E-2</v>
       </c>
       <c r="M18">
-        <f>4*K18*(1 - K18)^6</f>
+        <f t="shared" si="4"/>
         <v>3.7559502586509891E-2</v>
       </c>
       <c r="N18">
-        <f>L18/M18</f>
+        <f t="shared" si="5"/>
         <v>0.99716281568581444</v>
       </c>
       <c r="P18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>67.640500000000003</v>
       </c>
       <c r="Q18" s="3">
@@ -6149,15 +7206,15 @@
         <v>5.8769800000000005E-7</v>
       </c>
       <c r="S18" s="1">
-        <f>R18/Q18</f>
+        <f t="shared" si="6"/>
         <v>8.6885519769960302E-3</v>
       </c>
       <c r="U18">
-        <f>1 / W18</f>
+        <f t="shared" si="7"/>
         <v>17.493251978049468</v>
       </c>
       <c r="V18">
-        <f>U18*Y18</f>
+        <f t="shared" si="8"/>
         <v>1.9926980244545647</v>
       </c>
       <c r="W18">
@@ -6167,15 +7224,15 @@
         <v>6.5117899999999999E-3</v>
       </c>
       <c r="Y18">
-        <f>X18/W18</f>
+        <f t="shared" si="9"/>
         <v>0.11391238329814274</v>
       </c>
       <c r="AA18">
-        <f>1 / AC18</f>
+        <f t="shared" si="10"/>
         <v>84.330541992393393</v>
       </c>
       <c r="AB18">
-        <f>AA18*AE18</f>
+        <f t="shared" si="11"/>
         <v>17.949424567316964</v>
       </c>
       <c r="AC18">
@@ -6185,7 +7242,7 @@
         <v>2.5239500000000001E-3</v>
       </c>
       <c r="AE18" s="1">
-        <f>AD18/AC18</f>
+        <f t="shared" si="12"/>
         <v>0.21284607146170129</v>
       </c>
       <c r="AG18" s="1">
@@ -6195,7 +7252,7 @@
         <v>3.6905200000000001E-3</v>
       </c>
       <c r="AI18" s="1">
-        <f>AH18/AG18</f>
+        <f t="shared" si="13"/>
         <v>0.2075926582178797</v>
       </c>
       <c r="AK18" s="1">
@@ -6205,15 +7262,15 @@
         <v>5.1036500000000004E-3</v>
       </c>
       <c r="AM18" s="1">
-        <f>AL18/AK18</f>
+        <f t="shared" si="14"/>
         <v>7.4773933988138488E-2</v>
       </c>
       <c r="AQ18">
-        <f>1 / AS18</f>
+        <f t="shared" si="15"/>
         <v>28.930078892325138</v>
       </c>
       <c r="AR18">
-        <f>AQ18*AU18</f>
+        <f t="shared" si="16"/>
         <v>1.2938987639672366</v>
       </c>
       <c r="AS18">
@@ -6223,7 +7280,7 @@
         <v>1.54597E-3</v>
       </c>
       <c r="AU18" s="1">
-        <f>AT18/AS18</f>
+        <f t="shared" si="17"/>
         <v>4.4725034065167896E-2</v>
       </c>
       <c r="AW18" s="1">
@@ -6233,7 +7290,7 @@
         <v>2.2695100000000002E-3</v>
       </c>
       <c r="AY18" s="1">
-        <f>AX18/AW18</f>
+        <f t="shared" si="18"/>
         <v>3.6242690011785414E-2</v>
       </c>
     </row>
@@ -6255,31 +7312,31 @@
         <v>153</v>
       </c>
       <c r="I19" s="1">
-        <f>(G19+H19) / (F19+ G19 +H19)</f>
+        <f t="shared" si="19"/>
         <v>4.6656178666173116E-2</v>
       </c>
       <c r="J19" s="1">
-        <f>((1 / F19 + 1 / (G19+H19) )^0.5)*I19</f>
+        <f t="shared" si="2"/>
         <v>8.6880377201970351E-4</v>
       </c>
       <c r="K19">
-        <f>1 - (1 -I19 )^(1/4)</f>
+        <f t="shared" si="20"/>
         <v>1.1873858325679221E-2</v>
       </c>
       <c r="L19">
-        <f>G19 / (F19+G19+H19)</f>
+        <f t="shared" si="3"/>
         <v>4.4296378555123694E-2</v>
       </c>
       <c r="M19">
-        <f>4*K19*(1 - K19)^6</f>
+        <f t="shared" si="4"/>
         <v>4.4210577556074916E-2</v>
       </c>
       <c r="N19">
-        <f>L19/M19</f>
+        <f t="shared" si="5"/>
         <v>1.0019407346339222</v>
       </c>
       <c r="P19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>71.623199999999997</v>
       </c>
       <c r="Q19" s="3">
@@ -6289,15 +7346,15 @@
         <v>5.9697500000000001E-7</v>
       </c>
       <c r="S19" s="1">
-        <f>R19/Q19</f>
+        <f t="shared" si="6"/>
         <v>8.3349389583263524E-3</v>
       </c>
       <c r="U19">
-        <f>1 / W19</f>
+        <f t="shared" si="7"/>
         <v>21.939543394222881</v>
       </c>
       <c r="V19">
-        <f>U19*Y19</f>
+        <f t="shared" si="8"/>
         <v>1.6849287066897038</v>
       </c>
       <c r="W19">
@@ -6307,15 +7364,15 @@
         <v>3.5004699999999999E-3</v>
       </c>
       <c r="Y19">
-        <f>X19/W19</f>
+        <f t="shared" si="9"/>
         <v>7.6798713465175361E-2</v>
       </c>
       <c r="AA19">
-        <f>1 / AC19</f>
+        <f t="shared" si="10"/>
         <v>160.58916954522752</v>
       </c>
       <c r="AB19">
-        <f>AA19*AE19</f>
+        <f t="shared" si="11"/>
         <v>44.668147763587399</v>
       </c>
       <c r="AC19">
@@ -6325,7 +7382,7 @@
         <v>1.7320700000000001E-3</v>
       </c>
       <c r="AE19" s="1">
-        <f>AD19/AC19</f>
+        <f t="shared" si="12"/>
         <v>0.27815168289420222</v>
       </c>
       <c r="AG19" s="1">
@@ -6335,7 +7392,7 @@
         <v>2.05427E-3</v>
       </c>
       <c r="AI19" s="1">
-        <f>AH19/AG19</f>
+        <f t="shared" si="13"/>
         <v>0.15444361744517371</v>
       </c>
       <c r="AK19" s="1">
@@ -6345,15 +7402,15 @@
         <v>3.3710300000000001E-3</v>
       </c>
       <c r="AM19" s="1">
-        <f>AL19/AK19</f>
+        <f t="shared" si="14"/>
         <v>4.7552768150226479E-2</v>
       </c>
       <c r="AQ19">
-        <f>1 / AS19</f>
+        <f t="shared" si="15"/>
         <v>29.614624886353877</v>
       </c>
       <c r="AR19">
-        <f>AQ19*AU19</f>
+        <f t="shared" si="16"/>
         <v>1.2021921695738882</v>
       </c>
       <c r="AS19">
@@ -6363,7 +7420,7 @@
         <v>1.3707599999999999E-3</v>
       </c>
       <c r="AU19" s="1">
-        <f>AT19/AS19</f>
+        <f t="shared" si="17"/>
         <v>4.0594543209218438E-2</v>
       </c>
       <c r="AW19" s="1">
@@ -6373,7 +7430,7 @@
         <v>2.2695100000000002E-3</v>
       </c>
       <c r="AY19" s="1">
-        <f>AX19/AW19</f>
+        <f t="shared" si="18"/>
         <v>3.3586992072054477E-2</v>
       </c>
     </row>
@@ -6395,31 +7452,31 @@
         <v>236</v>
       </c>
       <c r="I20" s="1">
-        <f>(G20+H20) / (F20+ G20 +H20)</f>
+        <f t="shared" si="19"/>
         <v>5.0737829877299703E-2</v>
       </c>
       <c r="J20" s="1">
-        <f>((1 / F20 + 1 / (G20+H20) )^0.5)*I20</f>
+        <f t="shared" si="2"/>
         <v>8.8944355892015773E-4</v>
       </c>
       <c r="K20">
-        <f>1 - (1 -I20 )^(1/4)</f>
+        <f t="shared" si="20"/>
         <v>1.2933202756757023E-2</v>
       </c>
       <c r="L20">
-        <f>G20 / (F20+G20+H20)</f>
+        <f t="shared" si="3"/>
         <v>4.7244793748057366E-2</v>
       </c>
       <c r="M20">
-        <f>4*K20*(1 - K20)^6</f>
+        <f t="shared" si="4"/>
         <v>4.7845967192090992E-2</v>
       </c>
       <c r="N20">
-        <f>L20/M20</f>
+        <f t="shared" si="5"/>
         <v>0.98743523269954925</v>
       </c>
       <c r="P20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>75.922599999999989</v>
       </c>
       <c r="Q20" s="3">
@@ -6429,15 +7486,15 @@
         <v>5.8039100000000005E-7</v>
       </c>
       <c r="S20" s="1">
-        <f>R20/Q20</f>
+        <f t="shared" si="6"/>
         <v>7.6445090131265275E-3</v>
       </c>
       <c r="U20">
-        <f>1 / W20</f>
+        <f t="shared" si="7"/>
         <v>19.136411999295781</v>
       </c>
       <c r="V20">
-        <f>U20*Y20</f>
+        <f t="shared" si="8"/>
         <v>1.1233510796128274</v>
       </c>
       <c r="W20">
@@ -6447,15 +7504,15 @@
         <v>3.0675699999999999E-3</v>
       </c>
       <c r="Y20">
-        <f>X20/W20</f>
+        <f t="shared" si="9"/>
         <v>5.8702283356679756E-2</v>
       </c>
       <c r="AA20">
-        <f>1 / AC20</f>
+        <f t="shared" si="10"/>
         <v>157.14103879655107</v>
       </c>
       <c r="AB20">
-        <f>AA20*AE20</f>
+        <f t="shared" si="11"/>
         <v>26.23342757389824</v>
       </c>
       <c r="AC20">
@@ -6465,7 +7522,7 @@
         <v>1.06237E-3</v>
       </c>
       <c r="AE20" s="1">
-        <f>AD20/AC20</f>
+        <f t="shared" si="12"/>
         <v>0.16694192538629196</v>
       </c>
       <c r="AG20" s="1">
@@ -6475,7 +7532,7 @@
         <v>1.7427499999999999E-3</v>
       </c>
       <c r="AI20" s="1">
-        <f>AH20/AG20</f>
+        <f t="shared" si="13"/>
         <v>0.10444885287560232</v>
       </c>
       <c r="AK20" s="1">
@@ -6485,15 +7542,15 @@
         <v>4.4093400000000003E-3</v>
       </c>
       <c r="AM20" s="1">
-        <f>AL20/AK20</f>
+        <f t="shared" si="14"/>
         <v>4.8981183300359582E-2</v>
       </c>
       <c r="AQ20">
-        <f>1 / AS20</f>
+        <f t="shared" si="15"/>
         <v>26.690581427625823</v>
       </c>
       <c r="AR20">
-        <f>AQ20*AU20</f>
+        <f t="shared" si="16"/>
         <v>0.9991229595649761</v>
       </c>
       <c r="AS20">
@@ -6503,7 +7560,7 @@
         <v>1.4025000000000001E-3</v>
       </c>
       <c r="AU20" s="1">
-        <f>AT20/AS20</f>
+        <f t="shared" si="17"/>
         <v>3.7433540452245215E-2</v>
       </c>
       <c r="AW20" s="1">
@@ -6513,7 +7570,7 @@
         <v>2.6816800000000001E-3</v>
       </c>
       <c r="AY20" s="1">
-        <f>AX20/AW20</f>
+        <f t="shared" si="18"/>
         <v>3.2915317022637197E-2</v>
       </c>
     </row>
@@ -6535,31 +7592,31 @@
         <v>262</v>
       </c>
       <c r="I21" s="1">
-        <f>(G21+H21) / (F21+ G21 +H21)</f>
+        <f t="shared" si="19"/>
         <v>5.5872434322827763E-2</v>
       </c>
       <c r="J21" s="1">
-        <f>((1 / F21 + 1 / (G21+H21) )^0.5)*I21</f>
+        <f t="shared" si="2"/>
         <v>9.0624446994344696E-4</v>
       </c>
       <c r="K21">
-        <f>1 - (1 -I21 )^(1/4)</f>
+        <f t="shared" si="20"/>
         <v>1.4270691645331901E-2</v>
       </c>
       <c r="L21">
-        <f>G21 / (F21+G21+H21)</f>
+        <f t="shared" si="3"/>
         <v>5.2236423942156905E-2</v>
       </c>
       <c r="M21">
-        <f>4*K21*(1 - K21)^6</f>
+        <f t="shared" si="4"/>
         <v>5.2366196420229209E-2</v>
       </c>
       <c r="N21">
-        <f>L21/M21</f>
+        <f t="shared" si="5"/>
         <v>0.99752182730571259</v>
       </c>
       <c r="P21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>81.482600000000005</v>
       </c>
       <c r="Q21" s="3">
@@ -6569,15 +7626,15 @@
         <v>5.6670800000000002E-7</v>
       </c>
       <c r="S21" s="1">
-        <f>R21/Q21</f>
+        <f t="shared" si="6"/>
         <v>6.9549572546776855E-3</v>
       </c>
       <c r="U21">
-        <f>1 / W21</f>
+        <f t="shared" si="7"/>
         <v>19.720015223851753</v>
       </c>
       <c r="V21">
-        <f>U21*Y21</f>
+        <f t="shared" si="8"/>
         <v>1.1124428237870567</v>
       </c>
       <c r="W21">
@@ -6587,15 +7644,15 @@
         <v>2.8606399999999998E-3</v>
       </c>
       <c r="Y21">
-        <f>X21/W21</f>
+        <f t="shared" si="9"/>
         <v>5.6411864349959269E-2</v>
       </c>
       <c r="AA21">
-        <f>1 / AC21</f>
+        <f t="shared" si="10"/>
         <v>148.88374412839732</v>
       </c>
       <c r="AB21">
-        <f>AA21*AE21</f>
+        <f t="shared" si="11"/>
         <v>26.078511777391732</v>
       </c>
       <c r="AC21">
@@ -6605,7 +7662,7 @@
         <v>1.1764900000000001E-3</v>
       </c>
       <c r="AE21" s="1">
-        <f>AD21/AC21</f>
+        <f t="shared" si="12"/>
         <v>0.1751602361296182</v>
       </c>
       <c r="AG21" s="1">
@@ -6615,7 +7672,7 @@
         <v>1.87068E-3</v>
       </c>
       <c r="AI21" s="1">
-        <f>AH21/AG21</f>
+        <f t="shared" si="13"/>
         <v>0.10765202479124826</v>
       </c>
       <c r="AK21" s="1">
@@ -6625,15 +7682,15 @@
         <v>4.0605700000000003E-3</v>
       </c>
       <c r="AM21" s="1">
-        <f>AL21/AK21</f>
+        <f t="shared" si="14"/>
         <v>4.3654157098502643E-2</v>
       </c>
       <c r="AQ21">
-        <f>1 / AS21</f>
+        <f t="shared" si="15"/>
         <v>26.023301263951744</v>
       </c>
       <c r="AR21">
-        <f>AQ21*AU21</f>
+        <f t="shared" si="16"/>
         <v>0.81648089938828117</v>
       </c>
       <c r="AS21">
@@ -6643,7 +7700,7 @@
         <v>1.20565E-3</v>
       </c>
       <c r="AU21" s="1">
-        <f>AT21/AS21</f>
+        <f t="shared" si="17"/>
         <v>3.1374993168883418E-2</v>
       </c>
       <c r="AW21" s="1">
@@ -6653,7 +7710,7 @@
         <v>2.3639799999999999E-3</v>
       </c>
       <c r="AY21" s="1">
-        <f>AX21/AW21</f>
+        <f t="shared" si="18"/>
         <v>2.6200709774809424E-2</v>
       </c>
     </row>
@@ -6675,31 +7732,31 @@
         <v>250</v>
       </c>
       <c r="I22" s="1">
-        <f>(G22+H22) / (F22+ G22 +H22)</f>
+        <f t="shared" si="19"/>
         <v>5.8083620853595586E-2</v>
       </c>
       <c r="J22" s="1">
-        <f>((1 / F22 + 1 / (G22+H22) )^0.5)*I22</f>
+        <f t="shared" si="2"/>
         <v>9.1522665311054145E-4</v>
       </c>
       <c r="K22">
-        <f>1 - (1 -I22 )^(1/4)</f>
+        <f t="shared" si="20"/>
         <v>1.484835412551988E-2</v>
       </c>
       <c r="L22">
-        <f>G22 / (F22+G22+H22)</f>
+        <f t="shared" si="3"/>
         <v>5.4687712244288082E-2</v>
       </c>
       <c r="M22">
-        <f>4*K22*(1 - K22)^6</f>
+        <f t="shared" si="4"/>
         <v>5.4294624199242587E-2</v>
       </c>
       <c r="N22">
-        <f>L22/M22</f>
+        <f t="shared" si="5"/>
         <v>1.0072399072807465</v>
       </c>
       <c r="P22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
         <v>84.695800000000006</v>
       </c>
       <c r="Q22" s="3">
@@ -6709,15 +7766,15 @@
         <v>5.5837300000000002E-7</v>
       </c>
       <c r="S22" s="1">
-        <f>R22/Q22</f>
+        <f t="shared" si="6"/>
         <v>6.5926881852464937E-3</v>
       </c>
       <c r="U22">
-        <f>1 / W22</f>
+        <f t="shared" si="7"/>
         <v>18.148128655713666</v>
       </c>
       <c r="V22">
-        <f>U22*Y22</f>
+        <f t="shared" si="8"/>
         <v>1.5676816611923186</v>
       </c>
       <c r="W22">
@@ -6727,15 +7784,15 @@
         <v>4.7598600000000003E-3</v>
       </c>
       <c r="Y22">
-        <f>X22/W22</f>
+        <f t="shared" si="9"/>
         <v>8.6382551663185259E-2</v>
       </c>
       <c r="AA22">
-        <f>1 / AC22</f>
+        <f t="shared" si="10"/>
         <v>92.282421121600549</v>
       </c>
       <c r="AB22">
-        <f>AA22*AE22</f>
+        <f t="shared" si="11"/>
         <v>16.253723960455766</v>
       </c>
       <c r="AC22">
@@ -6745,7 +7802,7 @@
         <v>1.9086000000000001E-3</v>
       </c>
       <c r="AE22" s="1">
-        <f>AD22/AC22</f>
+        <f t="shared" si="12"/>
         <v>0.17613022895268682</v>
       </c>
       <c r="AG22" s="1">
@@ -6755,7 +7812,7 @@
         <v>3.6288700000000002E-3</v>
       </c>
       <c r="AI22" s="1">
-        <f>AH22/AG22</f>
+        <f t="shared" si="13"/>
         <v>0.1646059566901632</v>
       </c>
       <c r="AK22" s="1">
@@ -6765,15 +7822,15 @@
         <v>4.87164E-3</v>
       </c>
       <c r="AM22" s="1">
-        <f>AL22/AK22</f>
+        <f t="shared" si="14"/>
         <v>5.3097703943166437E-2</v>
       </c>
       <c r="AQ22">
-        <f>1 / AS22</f>
+        <f t="shared" si="15"/>
         <v>26.53202548135727</v>
       </c>
       <c r="AR22">
-        <f>AQ22*AU22</f>
+        <f t="shared" si="16"/>
         <v>0.81733334108880751</v>
       </c>
       <c r="AS22">
@@ -6783,7 +7840,7 @@
         <v>1.1610699999999999E-3</v>
       </c>
       <c r="AU22" s="1">
-        <f>AT22/AS22</f>
+        <f t="shared" si="17"/>
         <v>3.0805538825639484E-2</v>
       </c>
       <c r="AW22" s="1">
@@ -6793,7 +7850,7 @@
         <v>2.3155599999999999E-3</v>
       </c>
       <c r="AY22" s="1">
-        <f>AX22/AW22</f>
+        <f t="shared" si="18"/>
         <v>2.5332442080411872E-2</v>
       </c>
     </row>
@@ -6919,7 +7976,7 @@
         <v>2.5</v>
       </c>
       <c r="D28" s="7">
-        <f t="shared" ref="D28:D36" si="3">$B$27+C28</f>
+        <f t="shared" ref="D28:D36" si="22">$B$27+C28</f>
         <v>29.254999999999995</v>
       </c>
     </row>
@@ -6928,7 +7985,7 @@
         <v>2.7</v>
       </c>
       <c r="D29" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="22"/>
         <v>29.454999999999995</v>
       </c>
     </row>
@@ -6937,7 +7994,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="22"/>
         <v>29.754999999999995</v>
       </c>
       <c r="E30" t="s">
@@ -7004,7 +8061,7 @@
         <v>3.1</v>
       </c>
       <c r="D31" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="22"/>
         <v>29.854999999999997</v>
       </c>
       <c r="F31">
@@ -7023,7 +8080,7 @@
         <v>3.2</v>
       </c>
       <c r="D32" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="22"/>
         <v>29.954999999999995</v>
       </c>
     </row>
@@ -7032,7 +8089,7 @@
         <v>3.5</v>
       </c>
       <c r="D33" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="22"/>
         <v>30.254999999999995</v>
       </c>
     </row>
@@ -7041,7 +8098,7 @@
         <v>3.7</v>
       </c>
       <c r="D34" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="22"/>
         <v>30.454999999999995</v>
       </c>
     </row>
@@ -7050,7 +8107,7 @@
         <v>3.9</v>
       </c>
       <c r="D35" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="22"/>
         <v>30.654999999999994</v>
       </c>
     </row>
@@ -7059,7 +8116,7 @@
         <v>4</v>
       </c>
       <c r="D36" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="22"/>
         <v>30.754999999999995</v>
       </c>
     </row>
